--- a/uploads/09-09-2021-8.xlsx
+++ b/uploads/09-09-2021-8.xlsx
@@ -1179,7 +1179,7 @@
         <v>1026</v>
       </c>
       <c r="M14" s="18">
-        <v>7.5</v>
+        <v>1026</v>
       </c>
       <c r="N14" s="18">
         <v>7.5</v>
@@ -1187,10 +1187,10 @@
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="18">
-        <v>7.5</v>
+        <v>1022</v>
       </c>
       <c r="R14" s="18">
-        <v>7.5</v>
+        <v>1022</v>
       </c>
       <c r="S14" s="18">
         <v>7.5</v>
